--- a/web_ces/indicadores/SFE-X_out.xlsx
+++ b/web_ces/indicadores/SFE-X_out.xlsx
@@ -21108,22 +21108,22 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7709F22A-C1E2-4176-B71E-4508D370D2AE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B9ACE6-8083-41B4-8E85-9D56B4590EA4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78B6F064-3CCB-475B-AFB3-BB7606D5CA4B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A88BEC-5488-4E94-90A4-7CBFA968B049}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30555D52-91E0-4E8A-B78B-14178940C9D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27A5E4DF-BC2E-4D84-B168-27B328ADC324}"/>
 </file>